--- a/excel-test-cases/ERIGrid2.0/TC01/TC01.xlsx
+++ b/excel-test-cases/ERIGrid2.0/TC01/TC01.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\usr\Projekte\ERIGrid 2\NA4.3\dev\test-case-repository\test-case-descriptions-excel-input\excel-test-cases\ERIGrid2.0\TC01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63FA5650-7643-42F6-B5D4-9B30D3626695}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{794D2829-0202-43F3-834C-E011AE7E9B28}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2102,7 +2102,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
